--- a/src/pv_optimizer_contracting/data_input_24h.xlsx
+++ b/src/pv_optimizer_contracting/data_input_24h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\DA\Code\pv_optimizer_contracting\src\pv_optimizer_contracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4999A23F-51B5-4ACF-9A28-F4941C1D9C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB5B08-8F1A-4B13-ACFB-E22C0AE8DAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36885" yWindow="3375" windowWidth="17475" windowHeight="11505" activeTab="2" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A79E091E-0448-41B6-BCFB-F25C6EC10C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="10" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9740660E-AB78-4CFF-914A-8631BC8F2D6A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -592,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33AEF11-6D95-4C68-8F05-ED28777DD177}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
